--- a/documents/13.测试用例/测试用例版本控制.xlsx
+++ b/documents/13.测试用例/测试用例版本控制.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>***文档版本控制</t>
   </si>
@@ -66,6 +66,30 @@
   </si>
   <si>
     <t>测试用例1.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例1.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林秋霞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.完成测试用例</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例2.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林秋霞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.修改测试用例  2.新增测试用例</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -157,7 +181,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -189,6 +213,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1413,8 +1440,8 @@
   </sheetPr>
   <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
@@ -1479,17 +1506,33 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="5"/>
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11">
+        <v>40988</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="6"/>
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="11">
+        <v>41003</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="39.6" customHeight="1">

--- a/documents/13.测试用例/测试用例版本控制.xlsx
+++ b/documents/13.测试用例/测试用例版本控制.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>***文档版本控制</t>
   </si>
@@ -90,6 +90,26 @@
   </si>
   <si>
     <t>1.修改测试用例  2.新增测试用例</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试用例3.0</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-4-5</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016-4-7</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>林秋霞</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.补充数据分析（对比分析）测试  2.补充数据分析（取样分析）测试  3.补充数据分析（趋势分析）测试  4.新增备案（省用户） 5.查看往期汇总表  6.增加目录</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -181,7 +201,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -213,9 +233,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1440,8 +1457,8 @@
   </sheetPr>
   <dimension ref="A1:IV12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1"/>
@@ -1509,8 +1526,8 @@
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11">
-        <v>40988</v>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>13</v>
@@ -1524,8 +1541,8 @@
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11">
-        <v>41003</v>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>16</v>
@@ -1536,10 +1553,18 @@
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="39.6" customHeight="1">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="6"/>
+      <c r="A7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="39.6" customHeight="1">
